--- a/wikipedia_validation_sheets/Conversion disorder DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Conversion disorder DISNET VALIDATION.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{67BC50F1-FD09-9748-A8DF-B507F14CF942}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298C158-2C90-3943-8FA8-EB0F84CF95E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="460" windowWidth="19380" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,8 +33,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F0B91B10-85C0-449C-892F-0F060CF2148D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{F0B91B10-85C0-449C-892F-0F060CF2148D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Impairment or loss of speech</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="139">
   <si>
     <t>Conversion disorder</t>
   </si>
@@ -333,9 +366,6 @@
     <t>inability to speak</t>
   </si>
   <si>
-    <t>Impairment or loss of speech (hysterical aphonia)</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
@@ -346,6 +376,108 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>astasia, abasia</t>
+  </si>
+  <si>
+    <t>Astasia-abasia</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>conversion, disorder</t>
+  </si>
+  <si>
+    <t>Dissociative disorder</t>
+  </si>
+  <si>
+    <t>distress</t>
+  </si>
+  <si>
+    <t>Distress</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>Understanding, NOS</t>
+  </si>
+  <si>
+    <t>hysterical, blindness</t>
+  </si>
+  <si>
+    <t>Hysterical blindness</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>Sense of identity (observable entity)</t>
+  </si>
+  <si>
+    <t>psychogenic, non, epileptic, seizure</t>
+  </si>
+  <si>
+    <t>Psychogenic seizures</t>
+  </si>
+  <si>
+    <t>functional, disorder</t>
+  </si>
+  <si>
+    <t>Functional disorder</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>impairment</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>hysterical, paralysis</t>
+  </si>
+  <si>
+    <t>Hysterical paralysis</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>Thinking, function</t>
+  </si>
+  <si>
+    <t>conversion, disorder, disorders</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>Reflecting</t>
+  </si>
+  <si>
+    <t>affect, affects</t>
+  </si>
+  <si>
+    <t>Affect, NOS</t>
+  </si>
+  <si>
+    <t>hysterical, aphonia</t>
+  </si>
+  <si>
+    <t>Psychogenic aphonia</t>
+  </si>
+  <si>
+    <t>icd</t>
+  </si>
+  <si>
+    <t>Impulse control disorder, NOS</t>
   </si>
 </sst>
 </file>
@@ -661,8 +793,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -749,6 +884,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gerardo Lagunes García" id="{FCEB3BA4-A203-45EF-8A7A-7EB1ED46DCFA}" userId="5c11820d19dde345" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,18 +1153,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B65" dT="2019-01-24T15:03:44.06" personId="{FCEB3BA4-A203-45EF-8A7A-7EB1ED46DCFA}" id="{F0B91B10-85C0-449C-892F-0F060CF2148D}">
+    <text>Impairment or loss of speech</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="123" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -1033,58 +1182,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="B1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1092,28 +1241,28 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="b">
+      <c r="E4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1121,28 +1270,28 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="b">
+      <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1150,57 +1299,57 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="b">
+      <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>102</v>
+      <c r="F6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="b">
+      <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="5" t="s">
+      <c r="F7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1208,28 +1357,28 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="b">
+      <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1237,86 +1386,86 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="b">
+      <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>105</v>
+      <c r="F9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="b">
+      <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>105</v>
+      <c r="F10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="b">
+      <c r="E11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1324,28 +1473,28 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="b">
+      <c r="E12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="F12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1353,28 +1502,28 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="b">
+      <c r="E13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="F13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1382,28 +1531,28 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="1" t="b">
+      <c r="E14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1411,28 +1560,28 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="1" t="b">
+      <c r="E15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1440,28 +1589,28 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="b">
+      <c r="E16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1469,28 +1618,28 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="b">
+      <c r="E17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1498,28 +1647,28 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="b">
+      <c r="E18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1527,28 +1676,28 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="b">
+      <c r="E19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="F19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1556,28 +1705,28 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="1" t="b">
+      <c r="E20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1585,57 +1734,57 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="1" t="b">
+      <c r="E21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>102</v>
+      <c r="F21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="1" t="b">
+      <c r="E22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1643,28 +1792,28 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="b">
+      <c r="E23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="5" t="s">
+      <c r="F23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1672,28 +1821,28 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="b">
+      <c r="E24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="F24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1701,28 +1850,28 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="b">
+      <c r="E25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I25" s="5" t="s">
+      <c r="F25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1730,28 +1879,28 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="b">
+      <c r="E26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="F26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1759,28 +1908,28 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="1" t="b">
+      <c r="E27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="5" t="s">
+      <c r="F27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1788,28 +1937,28 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="5" t="s">
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1817,28 +1966,28 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="5" t="s">
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1846,28 +1995,28 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1875,28 +2024,28 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="5" t="s">
+      <c r="E31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1904,28 +2053,28 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1933,28 +2082,28 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="5" t="s">
+      <c r="E33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1962,28 +2111,28 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I34" s="5" t="s">
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1991,28 +2140,28 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="E35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2020,28 +2169,28 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" s="5" t="s">
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2049,28 +2198,28 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="E37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2078,28 +2227,28 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2107,28 +2256,28 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="E39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2136,28 +2285,28 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2165,28 +2314,28 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="5" t="s">
+      <c r="E41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2194,28 +2343,28 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="12" t="s">
+      <c r="E42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2223,28 +2372,28 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I43" s="12" t="s">
+      <c r="E43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2252,28 +2401,28 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="E44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2281,28 +2430,28 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="1" t="b">
+      <c r="E45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="12" t="s">
+      <c r="F45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2310,28 +2459,28 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="1" t="b">
+      <c r="E46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="12" t="s">
+      <c r="F46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2339,28 +2488,28 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="12" t="s">
+      <c r="E47" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="13" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2368,28 +2517,28 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="12" t="s">
+      <c r="E48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2397,28 +2546,28 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I49" s="12" t="s">
+      <c r="E49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2426,140 +2575,680 @@
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I50" s="12" t="s">
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="11" t="s">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="11" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I54" s="11" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="7" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="11" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>2</v>
-      </c>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2568,5 +3257,6 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>